--- a/ExperimentResult/TS/ts-Du62.xlsx
+++ b/ExperimentResult/TS/ts-Du62.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="113">
   <si>
     <t>实验次数</t>
   </si>
@@ -366,6 +366,206 @@
   </si>
   <si>
     <t>平均值</t>
+  </si>
+  <si>
+    <t>[36,42, 1,39,17,13,35, 4,19,51,62,48,20, 5, 8,61,58,22,33,34,54,53,21,18,
+  3,32,23,14,27,25,57,43,50,56, 2,26,38,31,52,60,46,49,16,29,11,28,24,30,
+ 40, 7,15,10,44,59,55,47, 9, 6,41,37,12,45]</t>
+  </si>
+  <si>
+    <t>[0.,0.,0.,0.,1.,0.,0.,0.,0.,0.,1.,0.,0.,0.,0.,0.,0.,0.,1.,0.,0.,0.,0.,0.,
+ 0.,0.,0.,1.,0.,0.,0.,0.,0.,0.,0.,0.,0.,1.,0.,0.,0.,0.,0.,0.,0.,0.,0.,0.,
+ 0.,1.,0.,0.,0.,0.,0.,0.,1.,0.,0.,0.,0.,1.]</t>
+  </si>
+  <si>
+    <t>[54,17,45,10,49,55, 6,14, 7,21,27,12,22,24,25,38,47,29, 1,58,35, 3,11,50,
+ 32,41, 4,39,57,43,28,16,61,44,31,48,46, 2,18,20,60,59,42,33,40,56, 8, 5,
+ 37, 9,34,30,52,13,62,36,51,53,19,23,26,15]</t>
+  </si>
+  <si>
+    <t>[0.,0.,0.,0.,0.,0.,1.,0.,0.,0.,0.,0.,0.,1.,0.,0.,0.,0.,0.,0.,1.,0.,0.,0.,
+ 0.,0.,1.,0.,0.,0.,0.,0.,0.,0.,0.,1.,0.,0.,0.,0.,0.,0.,1.,0.,0.,0.,0.,0.,
+ 1.,0.,0.,0.,0.,0.,0.,1.,0.,0.,0.,0.,0.,1.]</t>
+  </si>
+  <si>
+    <t>[ 6,39,23,14, 9,51,17,18, 5,33,41, 8,36, 3,53,34,13,35,59,56,43,57,20,55,
+ 26,25,24,21,19, 1,60,12,28, 4,37,44,16,29,47,31,10,48,27, 2,38,32,50,30,
+ 52, 7,42,46,40,61,58,62,49,15,22,11,45,54]</t>
+  </si>
+  <si>
+    <t>[0.,0.,0.,0.,1.,0.,0.,0.,0.,1.,0.,0.,0.,0.,0.,1.,0.,0.,0.,0.,0.,0.,0.,1.,
+ 0.,0.,0.,0.,0.,0.,0.,0.,1.,0.,0.,0.,0.,0.,1.,0.,0.,0.,0.,0.,0.,0.,0.,0.,
+ 0.,1.,0.,0.,0.,0.,0.,0.,1.,0.,0.,0.,0.,1.]</t>
+  </si>
+  <si>
+    <t>[34,17, 9,14,59,54,46,37,62,31,27,33,52,50, 8,11,48,25,43,47,18,16,38,58,
+ 44,42,24,51,60,57,28,61,32,40,22, 1,20, 5,21,26,41,55,12,29,36, 3,19, 7,
+ 56,10,30, 2, 4,13,49,39,23,53,15,35,45, 6]</t>
+  </si>
+  <si>
+    <t>[0.,0.,0.,0.,0.,0.,0.,0.,0.,1.,0.,0.,0.,0.,0.,0.,1.,0.,0.,0.,0.,0.,0.,1.,
+ 0.,0.,0.,0.,0.,0.,0.,0.,0.,1.,0.,0.,0.,0.,0.,0.,1.,0.,0.,0.,0.,0.,1.,0.,
+ 0.,0.,0.,0.,1.,0.,0.,0.,0.,1.,0.,0.,0.,1.]</t>
+  </si>
+  <si>
+    <t>[13,53,22,45,33,39, 4,25,27,30,18,49,23, 9,17,41,52,61, 3, 8,12,38,26,35,
+ 55, 5,43,21,51, 2,16,19,34,28,56,50,42,62,47, 1,60,36,20,24,14,40,59,44,
+ 29,58,37,15,57,32,11, 7,54, 6,10,48,31,46]</t>
+  </si>
+  <si>
+    <t>[0.,0.,0.,0.,1.,0.,0.,0.,0.,0.,0.,0.,0.,0.,1.,0.,0.,0.,0.,0.,0.,0.,1.,0.,
+ 0.,0.,0.,0.,0.,0.,0.,1.,0.,0.,0.,0.,0.,1.,0.,0.,0.,0.,0.,0.,1.,0.,0.,0.,
+ 0.,0.,1.,0.,0.,0.,0.,0.,1.,0.,0.,0.,0.,1.]</t>
+  </si>
+  <si>
+    <t>[33,46,54,17,32, 4,39,14,26, 8,47,60,40,50,45,30,58,16,56, 3,18,24,51,43,
+ 12, 2,61,23,37,52,29,62,36,28,38,25,42,15,21,35,27, 1,20,57,19,41,34, 5,
+ 44,59,11, 7, 9,55,13,48,53,31,22,49, 6,10]</t>
+  </si>
+  <si>
+    <t>[0.,0.,0.,0.,0.,0.,0.,1.,0.,0.,0.,0.,0.,0.,1.,0.,0.,0.,0.,0.,0.,1.,0.,0.,
+ 0.,0.,0.,1.,0.,0.,0.,0.,0.,0.,0.,1.,0.,0.,0.,0.,0.,0.,0.,0.,0.,1.,0.,0.,
+ 0.,0.,0.,0.,1.,0.,0.,0.,0.,0.,0.,0.,0.,1.]</t>
+  </si>
+  <si>
+    <t>[33, 8,54, 5,15,39,26,49,29,40,24,46,12,37,18,43,27,45,55,25,19,60,61,30,
+ 58,11,56,57,16,28, 1, 2, 6,20,38,36,22,35,31,21,44,47,59,41,53,23,32,52,
+ 50,62, 7, 4,34, 9,48,14, 3,13,10,42,51,17]</t>
+  </si>
+  <si>
+    <t>[0.,0.,0.,0.,0.,1.,0.,0.,0.,0.,0.,1.,0.,0.,0.,0.,0.,0.,1.,0.,0.,0.,0.,0.,
+ 0.,0.,0.,0.,0.,0.,0.,1.,0.,0.,0.,0.,0.,0.,0.,0.,0.,0.,1.,0.,0.,0.,0.,0.,
+ 0.,1.,0.,0.,0.,1.,0.,0.,0.,0.,0.,0.,0.,1.]</t>
+  </si>
+  <si>
+    <t>[40, 1,55,45,42,37,41, 6,10, 4,25,19,57,30,39,17,31,32,59,18,24,51, 3,11,
+ 12,62,58,28,53,61, 2,50,38,44, 8,20,56,16,21,43,27,36,26,14,49,60, 5,52,
+  9,54,23,47,13,34,15,46,22,29,48,35, 7,33]</t>
+  </si>
+  <si>
+    <t>[0.,0.,0.,0.,0.,0.,0.,1.,0.,0.,0.,0.,0.,1.,0.,0.,0.,0.,0.,0.,0.,0.,0.,0.,
+ 0.,1.,0.,0.,0.,0.,0.,0.,0.,1.,0.,0.,0.,0.,0.,0.,0.,1.,0.,0.,0.,0.,0.,1.,
+ 0.,0.,0.,0.,0.,1.,0.,0.,0.,0.,0.,0.,0.,1.]</t>
+  </si>
+  <si>
+    <t>[45,60,39, 4,51,14,19,32, 8,22,10, 6,59,35,20,28,31,30,36,33,44,47,16,43,
+ 56, 5,53,40,58,18, 2,21,50,24,26,54,12,55,42,13,11,52,57, 1,34,29,37,38,
+ 46,27, 3,61,25,41,23,15,48,49,17,62, 7, 9]</t>
+  </si>
+  <si>
+    <t>[0.,0.,0.,0.,0.,1.,0.,0.,0.,0.,1.,0.,0.,0.,0.,0.,0.,0.,0.,1.,0.,0.,0.,0.,
+ 0.,0.,0.,1.,0.,0.,0.,0.,0.,1.,0.,0.,0.,0.,0.,1.,0.,0.,0.,0.,0.,1.,0.,0.,
+ 0.,0.,0.,0.,0.,0.,1.,0.,0.,0.,0.,0.,0.,1.]</t>
+  </si>
+  <si>
+    <t>[ 9,24, 6,15,26,54,58,55,47,40,46,39,48,11,59, 5,34,37,28,50,43,12,30,31,
+ 14,61,38,49,21,56,27,45,53,44, 8,52, 2,22,36,60,20,16,32,57,33, 7,51, 3,
+ 23,18,62, 4,35,25,29,42,19,17, 1,10,41,13]</t>
+  </si>
+  <si>
+    <t>[0.,0.,0.,1.,0.,0.,0.,0.,0.,0.,1.,0.,0.,0.,0.,0.,1.,0.,0.,0.,0.,0.,0.,1.,
+ 0.,0.,0.,0.,0.,0.,0.,0.,0.,0.,0.,0.,1.,0.,0.,0.,0.,0.,0.,0.,1.,0.,0.,0.,
+ 0.,1.,0.,0.,0.,0.,0.,0.,1.,0.,0.,0.,0.,1.]</t>
+  </si>
+  <si>
+    <t>[39, 6,58,15, 4,41, 7,19,54,10,28, 5,52, 9,13,14,12,53, 3,47, 1,57,11,56,
+ 29,50,49,36,27,16,32,61,44,46,48,51,25, 2,60,37,40,35,62,38,43,21,34,24,
+ 42, 8,59,30,18,20,22,23,31,17,45,55,26,33]</t>
+  </si>
+  <si>
+    <t>[0.,0.,0.,0.,0.,0.,0.,1.,0.,0.,0.,0.,0.,1.,0.,0.,0.,0.,1.,0.,0.,0.,0.,0.,
+ 0.,1.,0.,0.,0.,0.,0.,0.,0.,1.,0.,0.,0.,0.,0.,0.,1.,0.,0.,0.,0.,0.,0.,1.,
+ 0.,0.,0.,0.,1.,0.,0.,0.,1.,0.,0.,0.,0.,1.]</t>
+  </si>
+  <si>
+    <t>[15, 7,46,40,10,53, 9,60, 5, 8,33,14, 2,43,18,57,38,54,37,47,11,20,49,59,
+ 25,50,39,44,35,52,28,26,32, 3,62,34,29,51,21,16,56,58,61,31,45,42,30,12,
+ 27,24,22, 1,48, 4,13,23,55, 6,17,19,36,41]</t>
+  </si>
+  <si>
+    <t>[0.,0.,0.,0.,1.,0.,0.,0.,0.,0.,1.,0.,0.,0.,0.,0.,0.,1.,0.,0.,0.,0.,0.,0.,
+ 0.,0.,1.,0.,0.,0.,0.,0.,0.,1.,0.,0.,0.,0.,0.,0.,0.,0.,0.,1.,0.,0.,0.,0.,
+ 0.,0.,1.,0.,0.,0.,0.,1.,0.,0.,0.,0.,0.,1.]</t>
+  </si>
+  <si>
+    <t>[48,17,53,31,62,10, 7,28,11,13, 6,14,36,25,57,59, 3,19,35,49,20,38,61,30,
+ 16,18,39,42,60,52,12,23, 8,24, 1,29,21,22,45, 9,56,41, 4,51,15,27,44,37,
+ 32,58, 2,33,46,47,55,34,43,40,50, 5,26,54]</t>
+  </si>
+  <si>
+    <t>[0.,0.,0.,0.,0.,1.,0.,0.,0.,0.,1.,0.,0.,0.,0.,0.,0.,0.,1.,0.,0.,0.,0.,0.,
+ 0.,0.,1.,0.,0.,0.,0.,0.,1.,0.,0.,0.,0.,0.,1.,0.,0.,0.,0.,1.,0.,0.,0.,0.,
+ 0.,0.,0.,1.,0.,0.,0.,0.,0.,0.,0.,0.,0.,1.]</t>
+  </si>
+  <si>
+    <t>[45, 9,39,17,31,19, 6,34,14,60,46,15,32,59,21,28, 7,48,30,55,18,36,50,16,
+ 52,27,10, 5,42,13,24, 3,56,35,58,29,11,61,49,41, 4,22, 1,44,12,25,23,43,
+ 37, 2,47,38,57, 8,33,51,54,40,53,20,62,26]</t>
+  </si>
+  <si>
+    <t>[0.,0.,0.,1.,0.,0.,0.,0.,0.,0.,1.,0.,0.,0.,0.,0.,1.,0.,0.,0.,0.,0.,0.,0.,
+ 0.,0.,1.,0.,0.,0.,0.,0.,0.,0.,0.,0.,0.,0.,0.,1.,0.,0.,0.,0.,0.,1.,0.,0.,
+ 0.,0.,0.,0.,0.,1.,0.,0.,0.,0.,0.,0.,0.,1.]</t>
+  </si>
+  <si>
+    <t>[15,11, 1,54,31,42,47,46,37,30,41,58,45, 2,38,51,52, 5,18,14,33,62,27,35,
+ 59, 8,61, 3,24,60,44,26,20,43,28,56,32,29,53,12,25,49,57,36,16,21,19,13,
+  4,22,50,55, 9,39,48,23,34, 7, 6,40,10,17]</t>
+  </si>
+  <si>
+    <t>[0.,0.,0.,0.,1.,0.,0.,0.,0.,0.,0.,1.,0.,0.,0.,0.,0.,0.,0.,0.,1.,0.,0.,0.,
+ 0.,0.,0.,0.,0.,1.,0.,0.,0.,0.,0.,0.,0.,0.,0.,0.,1.,0.,0.,0.,0.,0.,1.,0.,
+ 0.,0.,0.,0.,1.,0.,0.,0.,0.,1.,0.,0.,0.,1.]</t>
+  </si>
+  <si>
+    <t>[26,37,45,33, 7,17,34, 8,19,60,32,35,53, 9,51,50,16,39,61,52,54,11,18,56,
+ 20,38, 3,42,57,25,40,59,21, 2,28,29, 1,62,58,41,24,43,47,12,48,55,23,30,
+  4,27,44,15,49,46,31,36,13, 5,22, 6,14,10]</t>
+  </si>
+  <si>
+    <t>[0.,0.,0.,0.,0.,1.,0.,0.,0.,0.,0.,0.,0.,1.,0.,0.,0.,0.,0.,0.,1.,0.,0.,0.,
+ 0.,0.,0.,1.,0.,0.,0.,0.,0.,0.,0.,0.,0.,0.,1.,0.,0.,0.,0.,0.,0.,1.,0.,0.,
+ 0.,0.,0.,0.,1.,0.,0.,0.,0.,0.,0.,0.,0.,1.]</t>
+  </si>
+  <si>
+    <t>[ 7,46,57,60,45,22,13,39,50,48,47,26,15,33,41,51,38,16,61,20,44,52,56,36,
+ 31,49,30,18,35,12,21, 3,28, 2,29,37,42, 4,19,10, 5,43,53, 8, 1,62,54,55,
+ 32,11,34,58,25,40,27,59,17, 9,23,24,14, 6]</t>
+  </si>
+  <si>
+    <t>[0.,0.,0.,0.,0.,0.,1.,0.,0.,0.,0.,0.,1.,0.,0.,0.,0.,0.,0.,0.,0.,0.,0.,0.,
+ 1.,0.,0.,0.,0.,0.,0.,0.,0.,0.,0.,0.,0.,1.,0.,0.,0.,0.,0.,0.,0.,1.,0.,0.,
+ 0.,0.,0.,1.,0.,0.,0.,0.,1.,1.,0.,0.,0.,0.]</t>
+  </si>
+  <si>
+    <t>[33,34,23,45,14,10,51,17,26, 9,36, 5,43,21,22,41,53, 4,50,49,60,30,62,19,
+ 57,55,32,20, 1,39,47,61,56, 2,18,54,42,35,29,16, 8,44, 7, 3,27,52,40,12,
+ 25,13,37,59,11,38,58,31,46, 6,48,28,24,15]</t>
+  </si>
+  <si>
+    <t>[0.,0.,0.,1.,0.,0.,0.,0.,0.,1.,0.,0.,0.,0.,0.,1.,0.,0.,0.,0.,0.,1.,0.,0.,
+ 0.,0.,0.,0.,0.,1.,0.,0.,0.,0.,0.,1.,0.,0.,0.,0.,0.,1.,0.,0.,0.,0.,0.,0.,
+ 1.,0.,0.,0.,0.,0.,0.,0.,1.,0.,1.,0.,0.,0.]</t>
+  </si>
+  <si>
+    <t>[46,25,37, 8,42, 6,41,10,18, 7,13,48,40, 5, 2,38,26,21,34, 1,51,35,44,36,
+ 43,56,23,24,22,31,32,59,60,11,27,62,61,29,57,50,20,58,15,47,16,30,52,39,
+ 12,53,54,49,28,19, 3,33,45,17, 9,14,55, 4]</t>
+  </si>
+  <si>
+    <t>[0.,0.,0.,0.,0.,0.,1.,0.,0.,0.,1.,0.,0.,0.,0.,0.,0.,0.,0.,0.,1.,0.,0.,0.,
+ 0.,0.,0.,0.,1.,0.,0.,0.,0.,0.,0.,1.,0.,0.,0.,0.,0.,1.,0.,0.,0.,0.,0.,0.,
+ 1.,0.,0.,0.,0.,0.,0.,0.,1.,0.,0.,0.,0.,1.]</t>
+  </si>
+  <si>
+    <t>[17,26,34,46,33, 9,37, 5,15, 8,48,44,40,29,43,18,41,31,11,52,56,24,20,51,
+ 19,49,16,36,38, 4,50,39,42,28,27,30,21,57,60,47,35,59,22,12, 3,25,55, 2,
+ 61,45,58,23, 7,53,62,32, 1,14,13,10,54, 6]</t>
+  </si>
+  <si>
+    <t>[0.,0.,0.,0.,1.,0.,0.,0.,0.,1.,0.,0.,0.,0.,0.,0.,1.,0.,0.,0.,0.,0.,0.,1.,
+ 0.,0.,0.,0.,0.,1.,0.,0.,0.,0.,0.,0.,0.,0.,0.,0.,1.,0.,0.,0.,0.,0.,0.,0.,
+ 0.,0.,0.,1.,0.,0.,0.,0.,0.,1.,0.,0.,0.,1.]</t>
   </si>
 </sst>
 </file>
@@ -857,148 +1057,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1354,16 +1554,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J34"/>
+  <dimension ref="A1:J60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="J61" sqref="J61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="2" max="3" width="21.9090909090909"/>
-    <col min="10" max="10" width="12.8181818181818"/>
+    <col min="2" max="3" width="21.9090909090909" customWidth="1"/>
+    <col min="10" max="10" width="12.8181818181818" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -2331,10 +2531,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="2">
-        <v>45557.9106506244</v>
+        <v>45557.910650625</v>
       </c>
       <c r="C31" s="2">
-        <v>45557.9106506244</v>
+        <v>45557.910650625</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -2383,6 +2583,700 @@
       <c r="J34">
         <f>AVERAGE(J2:J31)</f>
         <v>4181952.66091891</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35">
+        <v>1</v>
+      </c>
+      <c r="B35" s="2">
+        <v>45558.8287672107</v>
+      </c>
+      <c r="C35" s="2">
+        <v>45558.8287672107</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>100</v>
+      </c>
+      <c r="F35">
+        <v>10000</v>
+      </c>
+      <c r="G35">
+        <v>1</v>
+      </c>
+      <c r="H35" t="s">
+        <v>73</v>
+      </c>
+      <c r="I35" t="s">
+        <v>74</v>
+      </c>
+      <c r="J35">
+        <v>4150965.73585672</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36">
+        <v>2</v>
+      </c>
+      <c r="B36" s="2">
+        <v>45558.8314687847</v>
+      </c>
+      <c r="C36" s="2">
+        <v>45558.8314687847</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>100</v>
+      </c>
+      <c r="F36">
+        <v>10000</v>
+      </c>
+      <c r="G36">
+        <v>1</v>
+      </c>
+      <c r="H36" t="s">
+        <v>75</v>
+      </c>
+      <c r="I36" t="s">
+        <v>76</v>
+      </c>
+      <c r="J36">
+        <v>4123453.77754172</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37">
+        <v>3</v>
+      </c>
+      <c r="B37" s="2">
+        <v>45558.834146794</v>
+      </c>
+      <c r="C37" s="2">
+        <v>45558.834146794</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>100</v>
+      </c>
+      <c r="F37">
+        <v>10000</v>
+      </c>
+      <c r="G37">
+        <v>1</v>
+      </c>
+      <c r="H37" t="s">
+        <v>77</v>
+      </c>
+      <c r="I37" t="s">
+        <v>78</v>
+      </c>
+      <c r="J37">
+        <v>4150926.40727045</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38">
+        <v>4</v>
+      </c>
+      <c r="B38" s="2">
+        <v>45558.8369151273</v>
+      </c>
+      <c r="C38" s="2">
+        <v>45558.8369151273</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>100</v>
+      </c>
+      <c r="F38">
+        <v>10000</v>
+      </c>
+      <c r="G38">
+        <v>1</v>
+      </c>
+      <c r="H38" t="s">
+        <v>79</v>
+      </c>
+      <c r="I38" t="s">
+        <v>80</v>
+      </c>
+      <c r="J38">
+        <v>4128530.4118906</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39">
+        <v>5</v>
+      </c>
+      <c r="B39" s="2">
+        <v>45558.8396446296</v>
+      </c>
+      <c r="C39" s="2">
+        <v>45558.8396446296</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>100</v>
+      </c>
+      <c r="F39">
+        <v>10000</v>
+      </c>
+      <c r="G39">
+        <v>1</v>
+      </c>
+      <c r="H39" t="s">
+        <v>81</v>
+      </c>
+      <c r="I39" t="s">
+        <v>82</v>
+      </c>
+      <c r="J39">
+        <v>4137246.50135064</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40">
+        <v>6</v>
+      </c>
+      <c r="B40" s="2">
+        <v>45558.8423501273</v>
+      </c>
+      <c r="C40" s="2">
+        <v>45558.8423501273</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>100</v>
+      </c>
+      <c r="F40">
+        <v>10000</v>
+      </c>
+      <c r="G40">
+        <v>1</v>
+      </c>
+      <c r="H40" t="s">
+        <v>83</v>
+      </c>
+      <c r="I40" t="s">
+        <v>84</v>
+      </c>
+      <c r="J40">
+        <v>4133521.85670602</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41">
+        <v>7</v>
+      </c>
+      <c r="B41" s="2">
+        <v>45558.8450730093</v>
+      </c>
+      <c r="C41" s="2">
+        <v>45558.8450730093</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>100</v>
+      </c>
+      <c r="F41">
+        <v>10000</v>
+      </c>
+      <c r="G41">
+        <v>1</v>
+      </c>
+      <c r="H41" t="s">
+        <v>85</v>
+      </c>
+      <c r="I41" t="s">
+        <v>86</v>
+      </c>
+      <c r="J41">
+        <v>4154685.72395957</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42">
+        <v>8</v>
+      </c>
+      <c r="B42" s="2">
+        <v>45558.8477797338</v>
+      </c>
+      <c r="C42" s="2">
+        <v>45558.8477797338</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>100</v>
+      </c>
+      <c r="F42">
+        <v>10000</v>
+      </c>
+      <c r="G42">
+        <v>1</v>
+      </c>
+      <c r="H42" t="s">
+        <v>87</v>
+      </c>
+      <c r="I42" t="s">
+        <v>88</v>
+      </c>
+      <c r="J42">
+        <v>4172626.82895386</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43">
+        <v>9</v>
+      </c>
+      <c r="B43" s="2">
+        <v>45558.8505108565</v>
+      </c>
+      <c r="C43" s="2">
+        <v>45558.8505108565</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>100</v>
+      </c>
+      <c r="F43">
+        <v>10000</v>
+      </c>
+      <c r="G43">
+        <v>1</v>
+      </c>
+      <c r="H43" t="s">
+        <v>89</v>
+      </c>
+      <c r="I43" t="s">
+        <v>90</v>
+      </c>
+      <c r="J43">
+        <v>4142747.21288387</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44">
+        <v>10</v>
+      </c>
+      <c r="B44" s="2">
+        <v>45558.8532602893</v>
+      </c>
+      <c r="C44" s="2">
+        <v>45558.8532602893</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>100</v>
+      </c>
+      <c r="F44">
+        <v>10000</v>
+      </c>
+      <c r="G44">
+        <v>1</v>
+      </c>
+      <c r="H44" t="s">
+        <v>91</v>
+      </c>
+      <c r="I44" t="s">
+        <v>92</v>
+      </c>
+      <c r="J44">
+        <v>4138345.47947493</v>
+      </c>
+    </row>
+    <row r="45" spans="9:10">
+      <c r="I45" t="s">
+        <v>70</v>
+      </c>
+      <c r="J45">
+        <f>MIN(J35:J44)</f>
+        <v>4123453.77754172</v>
+      </c>
+    </row>
+    <row r="46" spans="9:10">
+      <c r="I46" t="s">
+        <v>71</v>
+      </c>
+      <c r="J46">
+        <f>MAX(J35:J44)</f>
+        <v>4172626.82895386</v>
+      </c>
+    </row>
+    <row r="47" spans="9:10">
+      <c r="I47" t="s">
+        <v>72</v>
+      </c>
+      <c r="J47">
+        <f>AVERAGE(J35:J44)</f>
+        <v>4143304.99358884</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="A48">
+        <v>1</v>
+      </c>
+      <c r="B48" s="2">
+        <v>45558.9159048032</v>
+      </c>
+      <c r="C48" s="2">
+        <v>45558.9159048032</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>200</v>
+      </c>
+      <c r="F48">
+        <v>100000</v>
+      </c>
+      <c r="G48">
+        <v>1</v>
+      </c>
+      <c r="H48" t="s">
+        <v>93</v>
+      </c>
+      <c r="I48" t="s">
+        <v>94</v>
+      </c>
+      <c r="J48">
+        <v>4114898.71953705</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
+      <c r="A49">
+        <v>2</v>
+      </c>
+      <c r="B49" s="2">
+        <v>45558.9430681829</v>
+      </c>
+      <c r="C49" s="2">
+        <v>45558.9430681829</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>200</v>
+      </c>
+      <c r="F49">
+        <v>100000</v>
+      </c>
+      <c r="G49">
+        <v>1</v>
+      </c>
+      <c r="H49" t="s">
+        <v>95</v>
+      </c>
+      <c r="I49" t="s">
+        <v>96</v>
+      </c>
+      <c r="J49">
+        <v>4117246.71512863</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
+      <c r="A50">
+        <v>3</v>
+      </c>
+      <c r="B50" s="2">
+        <v>45558.9702385417</v>
+      </c>
+      <c r="C50" s="2">
+        <v>45558.9702385417</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>200</v>
+      </c>
+      <c r="F50">
+        <v>100000</v>
+      </c>
+      <c r="G50">
+        <v>1</v>
+      </c>
+      <c r="H50" t="s">
+        <v>97</v>
+      </c>
+      <c r="I50" t="s">
+        <v>98</v>
+      </c>
+      <c r="J50">
+        <v>4100617.41671803</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
+      <c r="A51">
+        <v>4</v>
+      </c>
+      <c r="B51" s="2">
+        <v>45558.9973351968</v>
+      </c>
+      <c r="C51" s="2">
+        <v>45558.9973351968</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>200</v>
+      </c>
+      <c r="F51">
+        <v>100000</v>
+      </c>
+      <c r="G51">
+        <v>1</v>
+      </c>
+      <c r="H51" t="s">
+        <v>99</v>
+      </c>
+      <c r="I51" t="s">
+        <v>100</v>
+      </c>
+      <c r="J51">
+        <v>4121297.89022852</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
+      <c r="A52">
+        <v>5</v>
+      </c>
+      <c r="B52" s="2">
+        <v>45559.0245133796</v>
+      </c>
+      <c r="C52" s="2">
+        <v>45559.0245133796</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>200</v>
+      </c>
+      <c r="F52">
+        <v>100000</v>
+      </c>
+      <c r="G52">
+        <v>1</v>
+      </c>
+      <c r="H52" t="s">
+        <v>101</v>
+      </c>
+      <c r="I52" t="s">
+        <v>102</v>
+      </c>
+      <c r="J52">
+        <v>4121369.11278003</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
+      <c r="A53">
+        <v>6</v>
+      </c>
+      <c r="B53" s="2">
+        <v>45559.0516031366</v>
+      </c>
+      <c r="C53" s="2">
+        <v>45559.0516031366</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <v>200</v>
+      </c>
+      <c r="F53">
+        <v>100000</v>
+      </c>
+      <c r="G53">
+        <v>1</v>
+      </c>
+      <c r="H53" t="s">
+        <v>103</v>
+      </c>
+      <c r="I53" t="s">
+        <v>104</v>
+      </c>
+      <c r="J53">
+        <v>4103878.72951589</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
+      <c r="A54">
+        <v>7</v>
+      </c>
+      <c r="B54" s="2">
+        <v>45559.0787861111</v>
+      </c>
+      <c r="C54" s="2">
+        <v>45559.0787861111</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>200</v>
+      </c>
+      <c r="F54">
+        <v>100000</v>
+      </c>
+      <c r="G54">
+        <v>1</v>
+      </c>
+      <c r="H54" t="s">
+        <v>105</v>
+      </c>
+      <c r="I54" t="s">
+        <v>106</v>
+      </c>
+      <c r="J54">
+        <v>4101742.90923644</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
+      <c r="A55">
+        <v>8</v>
+      </c>
+      <c r="B55" s="2">
+        <v>45559.1059366667</v>
+      </c>
+      <c r="C55" s="2">
+        <v>45559.1059366667</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <v>200</v>
+      </c>
+      <c r="F55">
+        <v>100000</v>
+      </c>
+      <c r="G55">
+        <v>1</v>
+      </c>
+      <c r="H55" t="s">
+        <v>107</v>
+      </c>
+      <c r="I55" t="s">
+        <v>108</v>
+      </c>
+      <c r="J55">
+        <v>4088672.38604247</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
+      <c r="A56">
+        <v>9</v>
+      </c>
+      <c r="B56" s="2">
+        <v>45559.1331008681</v>
+      </c>
+      <c r="C56" s="2">
+        <v>45559.1331008681</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56">
+        <v>200</v>
+      </c>
+      <c r="F56">
+        <v>100000</v>
+      </c>
+      <c r="G56">
+        <v>1</v>
+      </c>
+      <c r="H56" t="s">
+        <v>109</v>
+      </c>
+      <c r="I56" t="s">
+        <v>110</v>
+      </c>
+      <c r="J56">
+        <v>4122932.74611253</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
+      <c r="A57">
+        <v>10</v>
+      </c>
+      <c r="B57" s="2">
+        <v>45559.1603208625</v>
+      </c>
+      <c r="C57" s="2">
+        <v>45559.1603208625</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>200</v>
+      </c>
+      <c r="F57">
+        <v>100000</v>
+      </c>
+      <c r="G57">
+        <v>1</v>
+      </c>
+      <c r="H57" t="s">
+        <v>111</v>
+      </c>
+      <c r="I57" t="s">
+        <v>112</v>
+      </c>
+      <c r="J57">
+        <v>4087987.53921552</v>
+      </c>
+    </row>
+    <row r="58" spans="9:10">
+      <c r="I58" t="s">
+        <v>70</v>
+      </c>
+      <c r="J58">
+        <f>MIN(J48:J57)</f>
+        <v>4087987.53921552</v>
+      </c>
+    </row>
+    <row r="59" spans="9:10">
+      <c r="I59" t="s">
+        <v>71</v>
+      </c>
+      <c r="J59">
+        <f>MAX(J48:J57)</f>
+        <v>4122932.74611253</v>
+      </c>
+    </row>
+    <row r="60" spans="9:10">
+      <c r="I60" t="s">
+        <v>72</v>
+      </c>
+      <c r="J60">
+        <f>AVERAGE(J48:J57)</f>
+        <v>4108064.41645151</v>
       </c>
     </row>
   </sheetData>

--- a/ExperimentResult/TS/ts-Du62.xlsx
+++ b/ExperimentResult/TS/ts-Du62.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="181">
   <si>
     <t>实验次数</t>
   </si>
@@ -566,6 +566,346 @@
     <t>[0.,0.,0.,0.,1.,0.,0.,0.,0.,1.,0.,0.,0.,0.,0.,0.,1.,0.,0.,0.,0.,0.,0.,1.,
  0.,0.,0.,0.,0.,1.,0.,0.,0.,0.,0.,0.,0.,0.,0.,0.,1.,0.,0.,0.,0.,0.,0.,0.,
  0.,0.,0.,1.,0.,0.,0.,0.,0.,1.,0.,0.,0.,1.]</t>
+  </si>
+  <si>
+    <t>[17,33,15,14,29,51, 2,43, 5,47,46, 7,34,24, 9,21, 3,56,42,62,39,49,25,40,
+ 57,44,38,50, 8,19,23,52,27,11,16,37,41,10,53,20,59,36,18,28,30,61,31,55,
+  1,12,35,58,60,48,54,45,26,32,13,22, 4, 6]</t>
+  </si>
+  <si>
+    <t>[0.,0.,1.,0.,0.,0.,0.,0.,0.,0.,1.,0.,0.,0.,0.,0.,0.,0.,0.,0.,1.,0.,0.,0.,
+ 0.,0.,0.,0.,0.,1.,0.,0.,0.,0.,0.,1.,0.,0.,0.,0.,0.,0.,0.,0.,0.,0.,1.,0.,
+ 0.,0.,0.,0.,1.,0.,0.,0.,0.,1.,0.,0.,0.,1.]</t>
+  </si>
+  <si>
+    <t>[ 6,62,22,23,10,13,39, 4,30,41,40,34,58,38,28,52,20,49,45,55,60,18,36,12,
+ 56,42,37,11,57,27,24, 1,19,29, 5,32,16,43,21, 3, 2,25,48, 8,50,61,35,14,
+ 54,47,26,59,53,44,51,31,46,33, 9,17, 7,15]</t>
+  </si>
+  <si>
+    <t>[0.,0.,0.,0.,0.,0.,1.,0.,0.,0.,0.,0.,0.,0.,0.,0.,0.,0.,1.,0.,0.,0.,0.,0.,
+ 0.,1.,0.,0.,0.,0.,0.,1.,0.,0.,0.,0.,0.,0.,0.,0.,0.,1.,0.,0.,0.,0.,0.,1.,
+ 0.,0.,0.,0.,0.,0.,0.,1.,0.,0.,0.,0.,0.,1.]</t>
+  </si>
+  <si>
+    <t>[ 6, 4,45,13,48,19,30,24,35,23,62,41, 8,22,55,21,42,51,33,31,18,32,56,57,
+ 12,43, 1,36,34,37,52,44,28,38,50,16,60, 2,20, 3,26, 5,58,61,25,53,46,40,
+ 11,59,39,54,47,10,27,29,49, 7,14,15, 9,17]</t>
+  </si>
+  <si>
+    <t>[0.,0.,0.,0.,1.,0.,0.,0.,0.,0.,1.,0.,0.,0.,0.,0.,0.,1.,0.,0.,0.,0.,0.,0.,
+ 0.,0.,0.,0.,1.,0.,0.,0.,0.,0.,0.,0.,0.,0.,0.,1.,0.,0.,0.,0.,0.,1.,0.,0.,
+ 0.,0.,1.,0.,0.,0.,0.,0.,0.,0.,1.,0.,0.,1.]</t>
+  </si>
+  <si>
+    <t>[33,26, 9,12,50,55,39, 7,19,45,24, 3,57,31,34,53,23,21,36,30,18,22,10,35,
+  8,32,28, 4,41,37,20, 5,13,51, 1,47,60,59,61,43,29,38,56,25,62,42,52, 2,
+ 16,27,54,17,44,58,40,49, 6,15,48,11,46,14]</t>
+  </si>
+  <si>
+    <t>[0.,0.,0.,0.,0.,0.,0.,0.,1.,0.,0.,0.,0.,0.,0.,1.,0.,0.,0.,0.,0.,0.,1.,0.,
+ 0.,0.,0.,0.,1.,0.,0.,0.,1.,0.,0.,0.,0.,0.,0.,0.,0.,0.,0.,1.,0.,0.,0.,0.,
+ 0.,0.,1.,0.,0.,0.,0.,0.,1.,0.,0.,0.,0.,1.]</t>
+  </si>
+  <si>
+    <t>[33,39,31,15,45,18,36,19,54,48,60, 4,30,22,26,51,58,38,61,47,46,37,12,55,
+ 21,11,56,27,52,16,49,20,25, 5,40, 8,53,57,59,43,44,50,34,62,29, 1,32, 2,
+  3, 6, 9,35,28,23,24,42,13,41,17,14,10, 7]</t>
+  </si>
+  <si>
+    <t>[0.,0.,0.,1.,0.,0.,0.,0.,1.,0.,0.,0.,0.,0.,1.,0.,0.,0.,0.,0.,1.,0.,0.,0.,
+ 0.,0.,0.,0.,0.,0.,0.,0.,0.,0.,1.,0.,0.,0.,0.,0.,0.,0.,1.,0.,0.,0.,0.,0.,
+ 0.,1.,0.,0.,0.,0.,0.,0.,0.,1.,0.,0.,0.,1.]</t>
+  </si>
+  <si>
+    <t>[ 7,48,39, 9,25,51,13,33,17, 6, 3,50,42,34,47, 2, 8,35,53, 4,43,16,56,29,
+ 44,59,27,40,12,26,31,62,49,11,38,32,60,21,52,20,30,37,41,28, 1,61,22, 5,
+ 46,54,58,36,57,55,24,18,19,14,23,10,45,15]</t>
+  </si>
+  <si>
+    <t>[0.,0.,0.,0.,0.,0.,0.,0.,0.,1.,0.,0.,0.,0.,0.,0.,0.,1.,0.,0.,0.,0.,0.,0.,
+ 0.,0.,0.,0.,0.,0.,1.,0.,0.,0.,0.,0.,0.,0.,0.,0.,0.,1.,0.,0.,0.,0.,0.,0.,
+ 1.,0.,0.,0.,0.,0.,0.,0.,1.,1.,0.,0.,0.,0.]</t>
+  </si>
+  <si>
+    <t>[ 9, 6,34,35,37,45,33,46,19,18,26,24,30, 4, 8,51,36,56,60,59,55,22,39,15,
+ 31,12,21,29,47,52,11, 3,23, 5,41,53,27,50, 2,25,38,44,42,58,61,43,57,32,
+ 40,16,62,48, 7,20,28, 1,49,17,14,13,54,10]</t>
+  </si>
+  <si>
+    <t>[0.,0.,0.,0.,0.,0.,1.,0.,0.,0.,0.,0.,0.,1.,0.,0.,0.,0.,0.,0.,0.,0.,1.,0.,
+ 0.,0.,0.,0.,0.,0.,0.,0.,0.,0.,1.,0.,0.,0.,0.,0.,1.,0.,0.,0.,0.,0.,0.,0.,
+ 0.,0.,1.,0.,0.,0.,0.,0.,0.,1.,0.,0.,0.,1.]</t>
+  </si>
+  <si>
+    <t>[53,58,22,45,10,13, 7,48,38,43,23, 4,60,19,54, 1,61,41, 8,34,32,57,16,36,
+ 55,31, 3,24,59,21,56,18,30,37,25,49,50,29, 6,51,40,44,12,26,28,35,46,62,
+  5, 2,20,47,39,14,27,11,42,52,17,15, 9,33]</t>
+  </si>
+  <si>
+    <t>[0.,0.,0.,0.,0.,0.,1.,0.,0.,0.,0.,0.,0.,1.,0.,0.,0.,0.,1.,0.,0.,0.,0.,0.,
+ 1.,0.,0.,0.,0.,0.,0.,0.,0.,1.,0.,0.,0.,0.,1.,0.,0.,0.,0.,0.,0.,0.,1.,0.,
+ 0.,0.,0.,0.,1.,0.,0.,0.,0.,0.,1.,0.,0.,1.]</t>
+  </si>
+  <si>
+    <t>[33,39, 3,25,34, 7,15,13,35, 4,54,62, 1,30, 2,21,29,53,24,18,27,52, 5,49,
+ 51,28,36,40,20,50,16,47,56,59,43,44,42,19,22,57,61,11,60,38,58,26,45,55,
+ 23,32,12,37,31, 8, 9,48, 6,10,17,41,14,46]</t>
+  </si>
+  <si>
+    <t>[0.,0.,0.,0.,0.,0.,1.,0.,0.,0.,1.,0.,0.,0.,0.,0.,0.,1.,0.,0.,0.,0.,0.,0.,
+ 1.,0.,0.,0.,0.,0.,0.,0.,0.,0.,0.,0.,1.,0.,0.,0.,0.,0.,0.,0.,0.,1.,0.,0.,
+ 0.,0.,0.,0.,0.,0.,0.,1.,0.,0.,0.,0.,0.,1.]</t>
+  </si>
+  <si>
+    <t>[62,15,48, 7,41,13,25,35,52,14,31,23,24,38,29,43,44,37,42,36, 1,21,51, 8,
+ 20,16, 5,47,53,49, 2,30,61,56, 4,10,18,55,11,57,12, 3,22,45,28,59,27,58,
+ 50,26, 6,19,46,60,32,39,17,34,40,54, 9,33]</t>
+  </si>
+  <si>
+    <t>[0.,0.,0.,0.,1.,0.,0.,0.,0.,1.,0.,0.,0.,0.,0.,0.,0.,1.,0.,0.,0.,0.,1.,0.,
+ 0.,0.,0.,1.,0.,0.,0.,0.,0.,0.,1.,0.,0.,0.,0.,0.,0.,0.,1.,0.,0.,0.,0.,0.,
+ 0.,1.,0.,0.,0.,0.,0.,1.,0.,0.,1.,0.,0.,0.]</t>
+  </si>
+  <si>
+    <t>[ 6, 7,22,34,15,41,19,54,24,36,55,58,33,13,61,30, 1, 2,18, 5, 4,28,23, 3,
+ 48,43,50,32,59,21, 8,60,53,42,52,29,20,35,56,27,16,12,51,37,11,47,10,49,
+ 38,44,26,57,31,46,14,17,62,40,25,39, 9,45]</t>
+  </si>
+  <si>
+    <t>[0.,0.,0.,0.,1.,0.,0.,0.,0.,0.,0.,0.,1.,0.,0.,0.,0.,0.,0.,0.,0.,0.,0.,1.,
+ 0.,0.,0.,0.,0.,0.,0.,1.,0.,0.,0.,0.,0.,0.,0.,0.,0.,0.,0.,0.,0.,1.,0.,0.,
+ 0.,0.,0.,0.,0.,0.,1.,0.,0.,0.,0.,0.,0.,1.]</t>
+  </si>
+  <si>
+    <t>[17,39,31, 3,30, 5,46,51,33,15, 9,50,11, 2,60,40,48,62,41,38,19,59,21,56,
+ 18,32,47,58,22, 7,25,61,57,52,49,42,10,28,16, 1, 8,36,27,53,23,55,34,43,
+ 29,12,20,44,54,14,24, 4,35,13,45,37,26, 6]</t>
+  </si>
+  <si>
+    <t>[0.,0.,0.,0.,0.,0.,0.,0.,0.,1.,0.,0.,0.,0.,0.,0.,1.,0.,0.,0.,0.,0.,0.,0.,
+ 0.,0.,0.,0.,0.,1.,0.,0.,0.,0.,0.,1.,0.,0.,0.,0.,0.,0.,0.,1.,0.,0.,0.,0.,
+ 0.,0.,0.,0.,1.,0.,0.,0.,0.,1.,0.,0.,0.,1.]</t>
+  </si>
+  <si>
+    <t>[42,41,54,14,25, 6,17,44,61, 1,45,13,10,59,36,38,56, 2,35,28,62,31,22,43,
+ 60,11,18,57,23,55,58,20,21, 8,24,48,53,34,27,16,12,40,32,30,52, 3,39, 4,
+  7, 5,49,50,51, 9,15,46,29,47,37,33,26,19]</t>
+  </si>
+  <si>
+    <t>[0.,0.,0.,0.,1.,0.,0.,0.,0.,0.,1.,0.,0.,0.,0.,0.,0.,0.,0.,0.,1.,0.,0.,0.,
+ 0.,0.,0.,0.,1.,0.,0.,0.,0.,0.,1.,0.,0.,0.,0.,0.,0.,0.,0.,0.,0.,0.,1.,0.,
+ 0.,0.,0.,0.,0.,1.,0.,0.,0.,0.,0.,0.,0.,1.]</t>
+  </si>
+  <si>
+    <t>[ 9,15,33,14,11,46,54, 6,62,29,52,31,27,12, 2,24,42,38, 5,10,44,19,56,30,
+ 28,60,36,18,26,25,47,43,16,34,50,32,51,22, 7,59,61,21,57,23,53,49, 3,40,
+  8,35, 4,48,37,58,20, 1,39,13,17,55,45,41]</t>
+  </si>
+  <si>
+    <t>[0.,0.,1.,0.,0.,0.,0.,1.,0.,0.,0.,0.,0.,0.,0.,0.,0.,0.,0.,1.,0.,0.,0.,0.,
+ 0.,0.,0.,0.,1.,0.,0.,0.,0.,0.,0.,0.,0.,1.,0.,0.,0.,0.,0.,1.,0.,0.,0.,0.,
+ 0.,0.,1.,0.,0.,0.,0.,0.,0.,1.,0.,0.,0.,1.]</t>
+  </si>
+  <si>
+    <t>[14,36,53,58,19,42,13,10,54, 3,34, 1, 6,35,31,27,57,61,32,23,37,11,30,21,
+ 52,28,29,18,38,41,20,62,16,43,56,60,40,25, 9,12,50, 2, 8,26,59,44,24, 4,
+ 55,15, 7,33, 5,48,51,17,46,47,45,49,22,39]</t>
+  </si>
+  <si>
+    <t>[0.,0.,0.,0.,0.,0.,0.,1.,0.,0.,0.,0.,1.,0.,0.,0.,0.,0.,0.,1.,0.,0.,0.,0.,
+ 0.,0.,0.,0.,0.,0.,1.,0.,0.,0.,0.,0.,0.,1.,0.,0.,0.,0.,0.,0.,0.,0.,0.,0.,
+ 1.,0.,0.,0.,0.,0.,1.,0.,0.,0.,0.,0.,0.,1.]</t>
+  </si>
+  <si>
+    <t>[17,45,34,33, 9,23,26,52,47,51, 7,54,12,38,50,57, 5,49,11,46,22,25,18,30,
+ 60,32,43,27,44,61,31,48,37,24,56, 2,16,21,40,29,58,39,59,28, 3,20, 1,14,
+ 62,19,35,36, 8, 6,53,10,55,41,42, 4,13,15]</t>
+  </si>
+  <si>
+    <t>[0.,0.,0.,1.,0.,0.,0.,0.,0.,0.,1.,0.,0.,0.,0.,0.,0.,0.,0.,1.,0.,0.,0.,0.,
+ 0.,0.,0.,0.,0.,0.,0.,1.,0.,0.,0.,0.,0.,0.,0.,0.,1.,0.,0.,0.,0.,0.,0.,1.,
+ 0.,0.,0.,0.,0.,0.,1.,0.,0.,0.,0.,0.,0.,1.]</t>
+  </si>
+  <si>
+    <t>[33, 9,31, 7,14,48,46,54,11,15,49,17,51,21, 8,59,16,18,36,52,20,45,53,28,
+  3,27,56,50,47,44,39,35,22,61,32,43,30, 2,29,12,10,26,60,19,58,40, 5,41,
+ 42,37,57,38,24, 4,13,62,34,55,23, 1,25, 6]</t>
+  </si>
+  <si>
+    <t>[0.,0.,0.,0.,1.,0.,0.,0.,0.,0.,0.,1.,0.,0.,0.,0.,0.,0.,0.,0.,0.,1.,0.,0.,
+ 0.,0.,0.,0.,0.,0.,1.,0.,0.,0.,0.,0.,0.,0.,0.,0.,0.,1.,0.,0.,0.,0.,0.,0.,
+ 1.,0.,0.,0.,0.,0.,1.,0.,0.,0.,0.,0.,0.,1.]</t>
+  </si>
+  <si>
+    <t>[45,34, 8,14,42,23,33,62, 4,35,55,59,40,37,54, 3,24,61,21, 1,43,50,29,47,
+ 46,25,26,16,18,30,60,32, 5,44,57, 2,53,51,56,20,36,27,11,52,15,39,22,12,
+ 28,19, 9,13,49,38,31,10,41,48, 6,58, 7,17]</t>
+  </si>
+  <si>
+    <t>[0.,0.,0.,1.,0.,0.,0.,1.,0.,0.,0.,0.,0.,0.,1.,0.,0.,0.,0.,0.,0.,0.,0.,0.,
+ 1.,0.,0.,0.,0.,0.,0.,0.,0.,0.,0.,0.,1.,0.,0.,0.,0.,0.,0.,0.,1.,0.,0.,0.,
+ 0.,0.,1.,0.,0.,0.,0.,1.,0.,0.,0.,0.,0.,1.]</t>
+  </si>
+  <si>
+    <t>[15, 9,37,19,34,31, 6,54,58,52,10,26,33,60,40,32,44,29,16, 2, 5,24,28,55,
+ 14,25,47,43,56,30, 1,35,57,51,61,59,50,27,20, 3,18,21,12, 8,46,38,39,11,
+ 49, 4,36,23,41,17,62,48, 7,22,45,42,53,13]</t>
+  </si>
+  <si>
+    <t>[0.,0.,0.,0.,0.,0.,1.,0.,0.,0.,0.,1.,0.,0.,0.,0.,0.,0.,0.,0.,0.,0.,0.,1.,
+ 0.,0.,0.,0.,0.,0.,0.,0.,1.,0.,0.,0.,0.,0.,0.,0.,0.,0.,0.,1.,0.,0.,0.,0.,
+ 0.,0.,0.,0.,1.,0.,0.,0.,0.,0.,0.,0.,0.,1.]</t>
+  </si>
+  <si>
+    <t>[ 6,37,61,58,29,54,15,14, 1,39,27, 4,53,55,43,59,40,46,23,28,24, 2, 8,34,
+  9,38,12, 3,56,16,18, 5,11,47,20,41,31,35,52,30,22,60,50,32,26,49,25,44,
+ 13,51,21,45,10,48,19,17, 7,62,57,36,33,42]</t>
+  </si>
+  <si>
+    <t>[0.,0.,0.,0.,0.,0.,1.,0.,0.,0.,0.,1.,0.,0.,0.,0.,0.,1.,0.,0.,0.,0.,0.,1.,
+ 0.,0.,0.,0.,0.,0.,0.,0.,0.,0.,1.,0.,0.,0.,0.,0.,0.,0.,0.,1.,0.,0.,0.,0.,
+ 0.,0.,0.,1.,0.,0.,0.,1.,0.,0.,1.,0.,0.,0.]</t>
+  </si>
+  <si>
+    <t>[48,40,17, 9,45,37,49,33,46,18,59,24,57,43, 5,29,14,25,55,27,16,47,39,15,
+ 50,12,21,11,44, 3,51,34,61,32,20,36,56,60,52, 8,28, 1,31,30,22,58,19,42,
+  7,53,10,41,23,54,38, 4, 2,13,35,26,62, 6]</t>
+  </si>
+  <si>
+    <t>[0.,0.,0.,1.,0.,0.,0.,1.,0.,0.,0.,0.,0.,0.,0.,0.,0.,1.,0.,0.,0.,0.,1.,0.,
+ 0.,0.,0.,0.,0.,0.,0.,1.,0.,0.,0.,0.,0.,0.,0.,0.,0.,1.,0.,0.,0.,0.,0.,0.,
+ 0.,0.,0.,1.,0.,0.,0.,0.,0.,0.,0.,0.,0.,1.]</t>
+  </si>
+  <si>
+    <t>[ 9,22,38, 4, 7,13, 6,26,19,28,51,57,32, 1,45,25,12,10,58,33,40,18,59,20,
+ 60,36,54,39,49,47,53, 5,29,16,44,30, 2,42, 8,35,46,41,21,56, 3,50,27,11,
+ 48,17,61,14,52,43,31,62,23,15,37,24,34,55]</t>
+  </si>
+  <si>
+    <t>[0.,0.,0.,0.,0.,0.,1.,0.,0.,0.,0.,0.,0.,1.,0.,0.,0.,0.,1.,0.,0.,0.,0.,0.,
+ 0.,0.,0.,1.,0.,0.,0.,0.,0.,0.,0.,0.,0.,0.,0.,1.,0.,0.,0.,0.,0.,0.,0.,0.,
+ 1.,0.,0.,0.,0.,0.,0.,0.,1.,0.,0.,0.,0.,1.]</t>
+  </si>
+  <si>
+    <t>[ 6,36,35,23, 9,54,19,45, 1, 3,18,28,40,55,37,46,33, 4,59,30,56, 2,31,60,
+ 15,47,24,52,29,27,17,51,42,21,57,32,11, 8,34,61,43, 5,12,49,58,48,20,38,
+ 50,16, 7,13,26,41,44,53,25,62,39,10,22,14]</t>
+  </si>
+  <si>
+    <t>[0.,0.,0.,0.,0.,1.,0.,0.,0.,0.,0.,0.,0.,0.,0.,0.,1.,0.,0.,0.,0.,0.,0.,1.,
+ 0.,0.,0.,0.,0.,0.,1.,0.,0.,0.,0.,0.,0.,1.,0.,0.,0.,0.,0.,0.,1.,0.,0.,0.,
+ 0.,0.,1.,0.,0.,0.,0.,0.,0.,0.,0.,0.,0.,1.]</t>
+  </si>
+  <si>
+    <t>[17,48,15,14,60, 6,39,31,37, 2,44, 9,49,26,20, 5,35,38,62,55,61, 3,56,52,
+ 46,28,23,24,11,29,43,16,36,47,19,10,40,57,27,50,12,59,30, 8,32,45,22,18,
+ 58,21,13,53, 7,25,42, 1,41,33, 4,51,34,54]</t>
+  </si>
+  <si>
+    <t>[0.,0.,0.,0.,0.,1.,0.,0.,0.,0.,0.,1.,0.,0.,0.,0.,0.,0.,1.,0.,0.,0.,0.,0.,
+ 1.,0.,0.,0.,0.,0.,0.,0.,0.,0.,1.,0.,0.,0.,0.,0.,0.,0.,0.,0.,1.,0.,0.,0.,
+ 0.,0.,0.,1.,0.,0.,0.,0.,1.,0.,0.,0.,0.,0.]</t>
+  </si>
+  <si>
+    <t>[31,45,26, 4,55,15,41, 6,13,24,36, 1, 5,19,10,12,11,59,57,46,53,42,56,30,
+ 52,58,32,18, 8,35,54,49,25,22,16,28,20,27, 3,21, 9,50,38,61,43,44,40,47,
+ 60, 2,23,37,48,34,29,62,14, 7,51,39,33,17]</t>
+  </si>
+  <si>
+    <t>[0.,0.,0.,0.,0.,0.,0.,1.,0.,0.,0.,0.,0.,1.,0.,0.,0.,0.,0.,1.,0.,0.,0.,0.,
+ 0.,0.,0.,0.,0.,0.,1.,0.,0.,0.,0.,0.,0.,0.,0.,1.,0.,0.,0.,0.,0.,0.,0.,0.,
+ 0.,0.,1.,0.,0.,0.,0.,0.,1.,0.,0.,0.,0.,1.]</t>
+  </si>
+  <si>
+    <t>[53,31,12,48,54,46,14, 6,38, 7,21,40,13,10,15,19,49,61,42,27,22,30, 5,11,
+ 44,16, 3,62,51,18,36,60,29,57,28, 2, 1,55,23,26,50,43,56,32,20,52, 8,25,
+ 41,59,47,24,45,58,37, 4,17,35, 9,34,39,33]</t>
+  </si>
+  <si>
+    <t>[0.,0.,0.,0.,0.,1.,0.,0.,0.,0.,0.,0.,0.,0.,1.,0.,0.,0.,0.,1.,0.,0.,0.,0.,
+ 0.,0.,0.,0.,1.,0.,0.,0.,0.,0.,0.,0.,0.,1.,0.,0.,0.,0.,0.,0.,0.,0.,0.,1.,
+ 0.,0.,0.,0.,1.,0.,0.,0.,1.,0.,0.,0.,0.,1.]</t>
+  </si>
+  <si>
+    <t>[ 7,48,22,30,33,13,23,45,40, 9,46,60,35,18, 4,50,14,41,11,56,38,21,37,61,
+ 42,52,29,12,16,32,43,57, 8,47,49, 1,27,28,36,44, 2, 5,20,34,25,19,24,26,
+  3,58,53,55,51, 6,62,59,17,15,39,10,54,31]</t>
+  </si>
+  <si>
+    <t>[0.,0.,0.,0.,1.,0.,0.,0.,0.,1.,0.,0.,0.,0.,0.,0.,1.,0.,0.,0.,0.,0.,1.,0.,
+ 0.,0.,0.,0.,0.,0.,0.,0.,0.,1.,0.,0.,0.,0.,0.,0.,0.,0.,0.,0.,0.,1.,0.,0.,
+ 0.,0.,0.,0.,1.,0.,0.,0.,1.,0.,0.,0.,0.,1.]</t>
+  </si>
+  <si>
+    <t>[10,55, 1,45,14, 6,22,57,44,35,26,13,23,42,19,12,38,25, 4,61,36,60,30,21,
+  3,53,39,20,59,47,18,11,16,51,58,29,28,56,24,40,62,15, 5,27,52, 2,37,32,
+  8, 7,43,54,50,49,33,46,48,34,41, 9,31,17]</t>
+  </si>
+  <si>
+    <t>[0.,0.,0.,0.,1.,0.,0.,0.,0.,0.,1.,0.,0.,0.,0.,0.,0.,0.,1.,0.,0.,0.,0.,0.,
+ 1.,0.,0.,0.,0.,0.,0.,0.,0.,1.,0.,0.,0.,0.,0.,0.,1.,0.,0.,0.,0.,0.,0.,0.,
+ 1.,0.,0.,0.,0.,0.,0.,1.,0.,0.,0.,0.,0.,1.]</t>
+  </si>
+  <si>
+    <t>[ 6,46,23,15,14,62,55,13,11,34,10,39, 4,29,40, 5,43,42,28,49,52, 2,31,51,
+ 44,38,41,20, 1,27,19,37,59,16,57,61,17,25,30,50,32,36,18,12, 8,54,22,45,
+ 24,21,56, 3,35, 9,33,60,58,47,26,53,48, 7]</t>
+  </si>
+  <si>
+    <t>[0.,0.,0.,0.,0.,1.,0.,0.,0.,0.,1.,0.,0.,0.,0.,0.,0.,0.,0.,0.,0.,0.,1.,0.,
+ 0.,0.,0.,0.,0.,1.,0.,0.,0.,0.,0.,0.,1.,0.,0.,0.,0.,0.,0.,0.,0.,1.,0.,0.,
+ 0.,0.,0.,0.,0.,1.,0.,0.,0.,0.,0.,0.,0.,1.]</t>
+  </si>
+  <si>
+    <t>[46,14, 7,15,33,19,48,54,24, 5,61,51,42,18,47,59,53,40,30,60,44, 3,27,62,
+ 37,32,36,50,56,21,25,43, 2,45,29,12,16,38, 4, 9, 8,23,11,20,28,52, 1,55,
+ 31,39,34,22,35,49,57,26,17, 6,13,58,41,10]</t>
+  </si>
+  <si>
+    <t>[0.,0.,0.,1.,0.,0.,0.,1.,0.,0.,0.,0.,1.,0.,0.,0.,0.,0.,0.,0.,0.,0.,0.,1.,
+ 0.,0.,0.,0.,0.,0.,0.,0.,1.,0.,0.,0.,0.,0.,1.,0.,0.,0.,0.,0.,0.,0.,0.,1.,
+ 0.,0.,0.,0.,0.,0.,0.,0.,1.,0.,0.,0.,0.,1.]</t>
+  </si>
+  <si>
+    <t>[41, 1,10,53,30,19,32,45, 6,33, 4,23,60,12,36,54,35,55,52,34,39,13,28,38,
+  3, 5,61,56,31,29,42,21,50,20,62,44, 2,16,43,11,47,27,37,14,57,18,24,26,
+ 40,58,48, 7,59,25,22,49,17,15,46, 8,51, 9]</t>
+  </si>
+  <si>
+    <t>[0.,0.,0.,0.,0.,0.,0.,0.,0.,1.,0.,0.,0.,0.,0.,1.,0.,0.,0.,0.,1.,0.,0.,0.,
+ 0.,0.,0.,0.,1.,0.,0.,0.,0.,1.,0.,0.,0.,0.,0.,0.,0.,0.,1.,0.,0.,0.,0.,0.,
+ 0.,0.,1.,0.,0.,0.,0.,0.,1.,0.,0.,0.,0.,1.]</t>
+  </si>
+  <si>
+    <t>[ 9,61,47, 6,39,34,15,48,11,37, 4,46,31,42,55,49, 7,13,27,16,29,21,28,24,
+ 22,45, 1,36,52,18,50,56,20,12,41,54,60,59,44,32, 5, 2,38,25,14, 8,43,40,
+ 30,51, 3,26,58,19,57,35,23,10,17,62,33,53]</t>
+  </si>
+  <si>
+    <t>[0.,0.,0.,0.,1.,0.,0.,0.,0.,0.,0.,1.,0.,0.,0.,0.,1.,0.,0.,0.,0.,0.,0.,0.,
+ 0.,1.,0.,0.,0.,0.,0.,0.,0.,0.,1.,0.,0.,0.,0.,0.,0.,0.,0.,1.,0.,0.,0.,0.,
+ 0.,0.,0.,1.,0.,0.,0.,0.,0.,1.,0.,0.,0.,1.]</t>
+  </si>
+  <si>
+    <t>[33,41,10,23,19, 4,34,62,54,30,43,36,31, 7,26,47,29,58,12,61,38,22,50,14,
+ 35,21,44,24,56,59, 1,53,25,52, 3,60,16, 2,49,39,18,55,57,28,51,42, 5, 8,
+ 20,27,11,13,46,37,32,40, 9,15,48, 6,45,17]</t>
+  </si>
+  <si>
+    <t>[0.,0.,0.,0.,0.,0.,0.,1.,0.,0.,0.,0.,0.,1.,0.,0.,0.,0.,0.,0.,0.,0.,0.,1.,
+ 0.,0.,0.,0.,0.,0.,0.,0.,1.,0.,0.,0.,0.,0.,0.,1.,0.,0.,0.,0.,0.,1.,0.,0.,
+ 0.,0.,0.,1.,0.,0.,0.,0.,1.,0.,0.,0.,0.,1.]</t>
+  </si>
+  <si>
+    <t>[15,37,54,25,46, 9,33,17,26,35,20,38, 5,50,44,51,39,47,57, 2,32,19,53, 8,
+ 56,60,11,49,21, 7,27,40,59,16, 3,58,28,61,23,36,30,18,34,29, 1,43,10,55,
+ 62,52,22,12,45,24,48,13, 6,31,42,14, 4,41]</t>
+  </si>
+  <si>
+    <t>[0.,0.,0.,0.,0.,0.,0.,1.,0.,0.,0.,0.,0.,0.,0.,0.,1.,0.,0.,0.,0.,0.,1.,0.,
+ 0.,0.,0.,0.,0.,1.,0.,0.,0.,0.,1.,0.,0.,0.,0.,0.,0.,0.,0.,0.,0.,0.,1.,0.,
+ 0.,0.,0.,0.,1.,0.,0.,1.,0.,0.,0.,0.,0.,0.]</t>
   </si>
 </sst>
 </file>
@@ -1554,10 +1894,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J60"/>
+  <dimension ref="A1:J100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="J61" sqref="J61"/>
+    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="K97" sqref="K97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -3225,10 +3565,10 @@
         <v>10</v>
       </c>
       <c r="B57" s="2">
-        <v>45559.1603208625</v>
+        <v>45559.1603208681</v>
       </c>
       <c r="C57" s="2">
-        <v>45559.1603208625</v>
+        <v>45559.1603208681</v>
       </c>
       <c r="D57">
         <v>0</v>
@@ -3277,6 +3617,1148 @@
       <c r="J60">
         <f>AVERAGE(J48:J57)</f>
         <v>4108064.41645151</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
+      <c r="A61">
+        <v>1</v>
+      </c>
+      <c r="B61" s="2">
+        <v>45559.8677425579</v>
+      </c>
+      <c r="C61" s="2">
+        <v>45559.8677425579</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="E61">
+        <v>100</v>
+      </c>
+      <c r="F61">
+        <v>10000</v>
+      </c>
+      <c r="G61">
+        <v>1</v>
+      </c>
+      <c r="H61" t="s">
+        <v>113</v>
+      </c>
+      <c r="I61" t="s">
+        <v>114</v>
+      </c>
+      <c r="J61">
+        <v>3999642.08575775</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
+      <c r="A62">
+        <v>2</v>
+      </c>
+      <c r="B62" s="2">
+        <v>45559.8708953588</v>
+      </c>
+      <c r="C62" s="2">
+        <v>45559.8708953588</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="E62">
+        <v>100</v>
+      </c>
+      <c r="F62">
+        <v>10000</v>
+      </c>
+      <c r="G62">
+        <v>1</v>
+      </c>
+      <c r="H62" t="s">
+        <v>115</v>
+      </c>
+      <c r="I62" t="s">
+        <v>116</v>
+      </c>
+      <c r="J62">
+        <v>3938069.51987155</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
+      <c r="A63">
+        <v>3</v>
+      </c>
+      <c r="B63" s="2">
+        <v>45559.8738799768</v>
+      </c>
+      <c r="C63" s="2">
+        <v>45559.8738799768</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+      <c r="E63">
+        <v>100</v>
+      </c>
+      <c r="F63">
+        <v>10000</v>
+      </c>
+      <c r="G63">
+        <v>1</v>
+      </c>
+      <c r="H63" t="s">
+        <v>117</v>
+      </c>
+      <c r="I63" t="s">
+        <v>118</v>
+      </c>
+      <c r="J63">
+        <v>3941188.2109062</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
+      <c r="A64">
+        <v>4</v>
+      </c>
+      <c r="B64" s="2">
+        <v>45559.8768676505</v>
+      </c>
+      <c r="C64" s="2">
+        <v>45559.8768676505</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+      <c r="E64">
+        <v>100</v>
+      </c>
+      <c r="F64">
+        <v>10000</v>
+      </c>
+      <c r="G64">
+        <v>1</v>
+      </c>
+      <c r="H64" t="s">
+        <v>119</v>
+      </c>
+      <c r="I64" t="s">
+        <v>120</v>
+      </c>
+      <c r="J64">
+        <v>3988410.75033496</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
+      <c r="A65">
+        <v>5</v>
+      </c>
+      <c r="B65" s="2">
+        <v>45559.8799063657</v>
+      </c>
+      <c r="C65" s="2">
+        <v>45559.8799063657</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+      <c r="E65">
+        <v>100</v>
+      </c>
+      <c r="F65">
+        <v>10000</v>
+      </c>
+      <c r="G65">
+        <v>1</v>
+      </c>
+      <c r="H65" t="s">
+        <v>121</v>
+      </c>
+      <c r="I65" t="s">
+        <v>122</v>
+      </c>
+      <c r="J65">
+        <v>3993995.35412516</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
+      <c r="A66">
+        <v>6</v>
+      </c>
+      <c r="B66" s="2">
+        <v>45559.8830317014</v>
+      </c>
+      <c r="C66" s="2">
+        <v>45559.8830317014</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+      <c r="E66">
+        <v>100</v>
+      </c>
+      <c r="F66">
+        <v>10000</v>
+      </c>
+      <c r="G66">
+        <v>1</v>
+      </c>
+      <c r="H66" t="s">
+        <v>123</v>
+      </c>
+      <c r="I66" t="s">
+        <v>124</v>
+      </c>
+      <c r="J66">
+        <v>3986830.38395826</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
+      <c r="A67">
+        <v>7</v>
+      </c>
+      <c r="B67" s="2">
+        <v>45559.8861614699</v>
+      </c>
+      <c r="C67" s="2">
+        <v>45559.8861614699</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+      <c r="E67">
+        <v>100</v>
+      </c>
+      <c r="F67">
+        <v>10000</v>
+      </c>
+      <c r="G67">
+        <v>1</v>
+      </c>
+      <c r="H67" t="s">
+        <v>125</v>
+      </c>
+      <c r="I67" t="s">
+        <v>126</v>
+      </c>
+      <c r="J67">
+        <v>3954557.15661651</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
+      <c r="A68">
+        <v>8</v>
+      </c>
+      <c r="B68" s="2">
+        <v>45559.8894422107</v>
+      </c>
+      <c r="C68" s="2">
+        <v>45559.8894422107</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+      <c r="E68">
+        <v>100</v>
+      </c>
+      <c r="F68">
+        <v>10000</v>
+      </c>
+      <c r="G68">
+        <v>1</v>
+      </c>
+      <c r="H68" t="s">
+        <v>127</v>
+      </c>
+      <c r="I68" t="s">
+        <v>128</v>
+      </c>
+      <c r="J68">
+        <v>4010353.98903706</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
+      <c r="A69">
+        <v>9</v>
+      </c>
+      <c r="B69" s="2">
+        <v>45559.8926536343</v>
+      </c>
+      <c r="C69" s="2">
+        <v>45559.8926536343</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+      <c r="E69">
+        <v>100</v>
+      </c>
+      <c r="F69">
+        <v>10000</v>
+      </c>
+      <c r="G69">
+        <v>1</v>
+      </c>
+      <c r="H69" t="s">
+        <v>129</v>
+      </c>
+      <c r="I69" t="s">
+        <v>130</v>
+      </c>
+      <c r="J69">
+        <v>3988864.22401838</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
+      <c r="A70">
+        <v>10</v>
+      </c>
+      <c r="B70" s="2">
+        <v>45559.8957458681</v>
+      </c>
+      <c r="C70" s="2">
+        <v>45559.8957458681</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+      <c r="E70">
+        <v>100</v>
+      </c>
+      <c r="F70">
+        <v>10000</v>
+      </c>
+      <c r="G70">
+        <v>1</v>
+      </c>
+      <c r="H70" t="s">
+        <v>131</v>
+      </c>
+      <c r="I70" t="s">
+        <v>132</v>
+      </c>
+      <c r="J70">
+        <v>3996172.68119376</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
+      <c r="A71">
+        <v>11</v>
+      </c>
+      <c r="B71" s="2">
+        <v>45559.8989730903</v>
+      </c>
+      <c r="C71" s="2">
+        <v>45559.8989730903</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
+      <c r="E71">
+        <v>100</v>
+      </c>
+      <c r="F71">
+        <v>10000</v>
+      </c>
+      <c r="G71">
+        <v>1</v>
+      </c>
+      <c r="H71" t="s">
+        <v>133</v>
+      </c>
+      <c r="I71" t="s">
+        <v>134</v>
+      </c>
+      <c r="J71">
+        <v>3999283.34654933</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
+      <c r="A72">
+        <v>12</v>
+      </c>
+      <c r="B72" s="2">
+        <v>45559.9020698032</v>
+      </c>
+      <c r="C72" s="2">
+        <v>45559.9020698032</v>
+      </c>
+      <c r="D72">
+        <v>0</v>
+      </c>
+      <c r="E72">
+        <v>100</v>
+      </c>
+      <c r="F72">
+        <v>10000</v>
+      </c>
+      <c r="G72">
+        <v>1</v>
+      </c>
+      <c r="H72" t="s">
+        <v>135</v>
+      </c>
+      <c r="I72" t="s">
+        <v>136</v>
+      </c>
+      <c r="J72">
+        <v>3948255.47403176</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
+      <c r="A73">
+        <v>13</v>
+      </c>
+      <c r="B73" s="2">
+        <v>45559.9051070255</v>
+      </c>
+      <c r="C73" s="2">
+        <v>45559.9051070255</v>
+      </c>
+      <c r="D73">
+        <v>0</v>
+      </c>
+      <c r="E73">
+        <v>100</v>
+      </c>
+      <c r="F73">
+        <v>10000</v>
+      </c>
+      <c r="G73">
+        <v>1</v>
+      </c>
+      <c r="H73" t="s">
+        <v>137</v>
+      </c>
+      <c r="I73" t="s">
+        <v>138</v>
+      </c>
+      <c r="J73">
+        <v>3984022.04584451</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
+      <c r="A74">
+        <v>14</v>
+      </c>
+      <c r="B74" s="2">
+        <v>45559.9081752546</v>
+      </c>
+      <c r="C74" s="2">
+        <v>45559.9081752546</v>
+      </c>
+      <c r="D74">
+        <v>0</v>
+      </c>
+      <c r="E74">
+        <v>100</v>
+      </c>
+      <c r="F74">
+        <v>10000</v>
+      </c>
+      <c r="G74">
+        <v>1</v>
+      </c>
+      <c r="H74" t="s">
+        <v>139</v>
+      </c>
+      <c r="I74" t="s">
+        <v>140</v>
+      </c>
+      <c r="J74">
+        <v>3983253.69920257</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
+      <c r="A75">
+        <v>15</v>
+      </c>
+      <c r="B75" s="2">
+        <v>45559.9112582755</v>
+      </c>
+      <c r="C75" s="2">
+        <v>45559.9112582755</v>
+      </c>
+      <c r="D75">
+        <v>0</v>
+      </c>
+      <c r="E75">
+        <v>100</v>
+      </c>
+      <c r="F75">
+        <v>10000</v>
+      </c>
+      <c r="G75">
+        <v>1</v>
+      </c>
+      <c r="H75" t="s">
+        <v>141</v>
+      </c>
+      <c r="I75" t="s">
+        <v>142</v>
+      </c>
+      <c r="J75">
+        <v>3975573.99234108</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
+      <c r="A76">
+        <v>16</v>
+      </c>
+      <c r="B76" s="2">
+        <v>45559.9143256944</v>
+      </c>
+      <c r="C76" s="2">
+        <v>45559.9143256944</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <v>100</v>
+      </c>
+      <c r="F76">
+        <v>10000</v>
+      </c>
+      <c r="G76">
+        <v>1</v>
+      </c>
+      <c r="H76" t="s">
+        <v>143</v>
+      </c>
+      <c r="I76" t="s">
+        <v>144</v>
+      </c>
+      <c r="J76">
+        <v>3966341.84280811</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
+      <c r="A77">
+        <v>17</v>
+      </c>
+      <c r="B77" s="2">
+        <v>45559.9174410301</v>
+      </c>
+      <c r="C77" s="2">
+        <v>45559.9174410301</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
+      <c r="E77">
+        <v>100</v>
+      </c>
+      <c r="F77">
+        <v>10000</v>
+      </c>
+      <c r="G77">
+        <v>1</v>
+      </c>
+      <c r="H77" t="s">
+        <v>145</v>
+      </c>
+      <c r="I77" t="s">
+        <v>146</v>
+      </c>
+      <c r="J77">
+        <v>3969281.57798717</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
+      <c r="A78">
+        <v>18</v>
+      </c>
+      <c r="B78" s="2">
+        <v>45559.9204951273</v>
+      </c>
+      <c r="C78" s="2">
+        <v>45559.9204951273</v>
+      </c>
+      <c r="D78">
+        <v>0</v>
+      </c>
+      <c r="E78">
+        <v>100</v>
+      </c>
+      <c r="F78">
+        <v>10000</v>
+      </c>
+      <c r="G78">
+        <v>1</v>
+      </c>
+      <c r="H78" t="s">
+        <v>147</v>
+      </c>
+      <c r="I78" t="s">
+        <v>148</v>
+      </c>
+      <c r="J78">
+        <v>3951341.13390394</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
+      <c r="A79">
+        <v>19</v>
+      </c>
+      <c r="B79" s="2">
+        <v>45559.9235573148</v>
+      </c>
+      <c r="C79" s="2">
+        <v>45559.9235573148</v>
+      </c>
+      <c r="D79">
+        <v>0</v>
+      </c>
+      <c r="E79">
+        <v>100</v>
+      </c>
+      <c r="F79">
+        <v>10000</v>
+      </c>
+      <c r="G79">
+        <v>1</v>
+      </c>
+      <c r="H79" t="s">
+        <v>149</v>
+      </c>
+      <c r="I79" t="s">
+        <v>150</v>
+      </c>
+      <c r="J79">
+        <v>3978818.64211061</v>
+      </c>
+    </row>
+    <row r="80" spans="9:10">
+      <c r="I80" t="s">
+        <v>70</v>
+      </c>
+      <c r="J80">
+        <f>MIN(J61:J79)</f>
+        <v>3938069.51987155</v>
+      </c>
+    </row>
+    <row r="81" spans="9:10">
+      <c r="I81" t="s">
+        <v>71</v>
+      </c>
+      <c r="J81">
+        <f>MAX(J61:J79)</f>
+        <v>4010353.98903706</v>
+      </c>
+    </row>
+    <row r="82" spans="9:10">
+      <c r="I82" t="s">
+        <v>72</v>
+      </c>
+      <c r="J82">
+        <f>AVERAGE(J61:J79)</f>
+        <v>3976539.79529467</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
+      <c r="A83">
+        <v>1</v>
+      </c>
+      <c r="B83" s="2">
+        <v>45559.9900765972</v>
+      </c>
+      <c r="C83" s="2">
+        <v>45559.9900765972</v>
+      </c>
+      <c r="D83">
+        <v>0</v>
+      </c>
+      <c r="E83">
+        <v>200</v>
+      </c>
+      <c r="F83">
+        <v>100000</v>
+      </c>
+      <c r="G83">
+        <v>1</v>
+      </c>
+      <c r="H83" t="s">
+        <v>151</v>
+      </c>
+      <c r="I83" t="s">
+        <v>152</v>
+      </c>
+      <c r="J83">
+        <v>4120707.03777594</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
+      <c r="A84">
+        <v>2</v>
+      </c>
+      <c r="B84" s="2">
+        <v>45560.0181695139</v>
+      </c>
+      <c r="C84" s="2">
+        <v>45560.0181695139</v>
+      </c>
+      <c r="D84">
+        <v>0</v>
+      </c>
+      <c r="E84">
+        <v>200</v>
+      </c>
+      <c r="F84">
+        <v>100000</v>
+      </c>
+      <c r="G84">
+        <v>1</v>
+      </c>
+      <c r="H84" t="s">
+        <v>153</v>
+      </c>
+      <c r="I84" t="s">
+        <v>154</v>
+      </c>
+      <c r="J84">
+        <v>4087201.77958365</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
+      <c r="A85">
+        <v>3</v>
+      </c>
+      <c r="B85" s="2">
+        <v>45560.0461909375</v>
+      </c>
+      <c r="C85" s="2">
+        <v>45560.0461909375</v>
+      </c>
+      <c r="D85">
+        <v>0</v>
+      </c>
+      <c r="E85">
+        <v>200</v>
+      </c>
+      <c r="F85">
+        <v>100000</v>
+      </c>
+      <c r="G85">
+        <v>1</v>
+      </c>
+      <c r="H85" t="s">
+        <v>155</v>
+      </c>
+      <c r="I85" t="s">
+        <v>156</v>
+      </c>
+      <c r="J85">
+        <v>4105305.52286009</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
+      <c r="A86">
+        <v>4</v>
+      </c>
+      <c r="B86" s="2">
+        <v>45560.0741243171</v>
+      </c>
+      <c r="C86" s="2">
+        <v>45560.0741243171</v>
+      </c>
+      <c r="D86">
+        <v>0</v>
+      </c>
+      <c r="E86">
+        <v>200</v>
+      </c>
+      <c r="F86">
+        <v>100000</v>
+      </c>
+      <c r="G86">
+        <v>1</v>
+      </c>
+      <c r="H86" t="s">
+        <v>157</v>
+      </c>
+      <c r="I86" t="s">
+        <v>158</v>
+      </c>
+      <c r="J86">
+        <v>4058111.69401655</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
+      <c r="A87">
+        <v>5</v>
+      </c>
+      <c r="B87" s="2">
+        <v>45560.1021575579</v>
+      </c>
+      <c r="C87" s="2">
+        <v>45560.1021575579</v>
+      </c>
+      <c r="D87">
+        <v>0</v>
+      </c>
+      <c r="E87">
+        <v>200</v>
+      </c>
+      <c r="F87">
+        <v>100000</v>
+      </c>
+      <c r="G87">
+        <v>1</v>
+      </c>
+      <c r="H87" t="s">
+        <v>159</v>
+      </c>
+      <c r="I87" t="s">
+        <v>160</v>
+      </c>
+      <c r="J87">
+        <v>4080219.69280524</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
+      <c r="A88">
+        <v>6</v>
+      </c>
+      <c r="B88" s="2">
+        <v>45560.1302521412</v>
+      </c>
+      <c r="C88" s="2">
+        <v>45560.1302521412</v>
+      </c>
+      <c r="D88">
+        <v>0</v>
+      </c>
+      <c r="E88">
+        <v>200</v>
+      </c>
+      <c r="F88">
+        <v>100000</v>
+      </c>
+      <c r="G88">
+        <v>1</v>
+      </c>
+      <c r="H88" t="s">
+        <v>161</v>
+      </c>
+      <c r="I88" t="s">
+        <v>162</v>
+      </c>
+      <c r="J88">
+        <v>4102652.56482168</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
+      <c r="A89">
+        <v>7</v>
+      </c>
+      <c r="B89" s="2">
+        <v>45560.1580357292</v>
+      </c>
+      <c r="C89" s="2">
+        <v>45560.1580357292</v>
+      </c>
+      <c r="D89">
+        <v>0</v>
+      </c>
+      <c r="E89">
+        <v>200</v>
+      </c>
+      <c r="F89">
+        <v>100000</v>
+      </c>
+      <c r="G89">
+        <v>1</v>
+      </c>
+      <c r="H89" t="s">
+        <v>163</v>
+      </c>
+      <c r="I89" t="s">
+        <v>164</v>
+      </c>
+      <c r="J89">
+        <v>4071988.69515474</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
+      <c r="A90">
+        <v>8</v>
+      </c>
+      <c r="B90" s="2">
+        <v>45560.1864582523</v>
+      </c>
+      <c r="C90" s="2">
+        <v>45560.1864582523</v>
+      </c>
+      <c r="D90">
+        <v>0</v>
+      </c>
+      <c r="E90">
+        <v>200</v>
+      </c>
+      <c r="F90">
+        <v>100000</v>
+      </c>
+      <c r="G90">
+        <v>1</v>
+      </c>
+      <c r="H90" t="s">
+        <v>165</v>
+      </c>
+      <c r="I90" t="s">
+        <v>166</v>
+      </c>
+      <c r="J90">
+        <v>4070740.19171291</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
+      <c r="A91">
+        <v>9</v>
+      </c>
+      <c r="B91" s="2">
+        <v>45560.2145266667</v>
+      </c>
+      <c r="C91" s="2">
+        <v>45560.2145266667</v>
+      </c>
+      <c r="D91">
+        <v>0</v>
+      </c>
+      <c r="E91">
+        <v>200</v>
+      </c>
+      <c r="F91">
+        <v>100000</v>
+      </c>
+      <c r="G91">
+        <v>1</v>
+      </c>
+      <c r="H91" t="s">
+        <v>167</v>
+      </c>
+      <c r="I91" t="s">
+        <v>168</v>
+      </c>
+      <c r="J91">
+        <v>4066564.30152289</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
+      <c r="A92">
+        <v>10</v>
+      </c>
+      <c r="B92" s="2">
+        <v>45560.2426631597</v>
+      </c>
+      <c r="C92" s="2">
+        <v>45560.2426631597</v>
+      </c>
+      <c r="D92">
+        <v>0</v>
+      </c>
+      <c r="E92">
+        <v>200</v>
+      </c>
+      <c r="F92">
+        <v>100000</v>
+      </c>
+      <c r="G92">
+        <v>1</v>
+      </c>
+      <c r="H92" t="s">
+        <v>169</v>
+      </c>
+      <c r="I92" t="s">
+        <v>170</v>
+      </c>
+      <c r="J92">
+        <v>4058105.51804552</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
+      <c r="A93">
+        <v>11</v>
+      </c>
+      <c r="B93" s="2">
+        <v>45560.2707046528</v>
+      </c>
+      <c r="C93" s="2">
+        <v>45560.2707046528</v>
+      </c>
+      <c r="D93">
+        <v>0</v>
+      </c>
+      <c r="E93">
+        <v>200</v>
+      </c>
+      <c r="F93">
+        <v>100000</v>
+      </c>
+      <c r="G93">
+        <v>1</v>
+      </c>
+      <c r="H93" t="s">
+        <v>171</v>
+      </c>
+      <c r="I93" t="s">
+        <v>172</v>
+      </c>
+      <c r="J93">
+        <v>4037684.51105657</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
+      <c r="A94">
+        <v>12</v>
+      </c>
+      <c r="B94" s="2">
+        <v>45560.2988044792</v>
+      </c>
+      <c r="C94" s="2">
+        <v>45560.2988044792</v>
+      </c>
+      <c r="D94">
+        <v>0</v>
+      </c>
+      <c r="E94">
+        <v>200</v>
+      </c>
+      <c r="F94">
+        <v>100000</v>
+      </c>
+      <c r="G94">
+        <v>1</v>
+      </c>
+      <c r="H94" t="s">
+        <v>173</v>
+      </c>
+      <c r="I94" t="s">
+        <v>174</v>
+      </c>
+      <c r="J94">
+        <v>4089985.3229084</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
+      <c r="A95">
+        <v>13</v>
+      </c>
+      <c r="B95" s="2">
+        <v>45560.327035</v>
+      </c>
+      <c r="C95" s="2">
+        <v>45560.327035</v>
+      </c>
+      <c r="D95">
+        <v>0</v>
+      </c>
+      <c r="E95">
+        <v>200</v>
+      </c>
+      <c r="F95">
+        <v>100000</v>
+      </c>
+      <c r="G95">
+        <v>1</v>
+      </c>
+      <c r="H95" t="s">
+        <v>175</v>
+      </c>
+      <c r="I95" t="s">
+        <v>176</v>
+      </c>
+      <c r="J95">
+        <v>4092044.32532491</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
+      <c r="A96">
+        <v>14</v>
+      </c>
+      <c r="B96" s="2">
+        <v>45560.3550260417</v>
+      </c>
+      <c r="C96" s="2">
+        <v>45560.3550260417</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="E96">
+        <v>200</v>
+      </c>
+      <c r="F96">
+        <v>100000</v>
+      </c>
+      <c r="G96">
+        <v>1</v>
+      </c>
+      <c r="H96" t="s">
+        <v>177</v>
+      </c>
+      <c r="I96" t="s">
+        <v>178</v>
+      </c>
+      <c r="J96">
+        <v>4098727.08716271</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
+      <c r="A97">
+        <v>15</v>
+      </c>
+      <c r="B97" s="2">
+        <v>45560.3831972219</v>
+      </c>
+      <c r="C97" s="2">
+        <v>45560.3831972219</v>
+      </c>
+      <c r="D97">
+        <v>0</v>
+      </c>
+      <c r="E97">
+        <v>200</v>
+      </c>
+      <c r="F97">
+        <v>100000</v>
+      </c>
+      <c r="G97">
+        <v>1</v>
+      </c>
+      <c r="H97" t="s">
+        <v>179</v>
+      </c>
+      <c r="I97" t="s">
+        <v>180</v>
+      </c>
+      <c r="J97">
+        <v>4086791.09790747</v>
+      </c>
+    </row>
+    <row r="98" spans="9:10">
+      <c r="I98" t="s">
+        <v>70</v>
+      </c>
+      <c r="J98">
+        <f>MIN(J83:J97)</f>
+        <v>4037684.51105657</v>
+      </c>
+    </row>
+    <row r="99" spans="9:10">
+      <c r="I99" t="s">
+        <v>71</v>
+      </c>
+      <c r="J99">
+        <f>MAX(J83:J97)</f>
+        <v>4120707.03777594</v>
+      </c>
+    </row>
+    <row r="100" spans="9:10">
+      <c r="I100" t="s">
+        <v>72</v>
+      </c>
+      <c r="J100">
+        <f>AVERAGE(J83:J97)</f>
+        <v>4081788.62284395</v>
       </c>
     </row>
   </sheetData>
